--- a/Testing/IMU data/rollGyro.xlsx
+++ b/Testing/IMU data/rollGyro.xlsx
@@ -8,24 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tris/Documents/2022UCT/2nd sem/3097/SHARC_buoy_data_transmission/Testing/IMU data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0778A7A-3767-8F46-B5D7-C3C4642A0BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF615041-2F7A-AE46-905C-F300568FE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C21F12DE-DC27-A74D-B391-2DE787A87BC9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C21F12DE-DC27-A74D-B391-2DE787A87BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$184</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$184</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$184</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$184</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$184</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$184</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -777,7 +766,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE82-0C4A-9B0C-3185857E3FB2}"/>
+              <c16:uniqueId val="{00000000-5C05-5E48-9E4E-F51109A03FDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1360,7 +1349,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CE82-0C4A-9B0C-3185857E3FB2}"/>
+              <c16:uniqueId val="{00000001-5C05-5E48-9E4E-F51109A03FDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1943,7 +1932,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CE82-0C4A-9B0C-3185857E3FB2}"/>
+              <c16:uniqueId val="{00000002-5C05-5E48-9E4E-F51109A03FDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1956,16 +1945,76 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="112135936"/>
-        <c:axId val="111996016"/>
+        <c:axId val="156730992"/>
+        <c:axId val="182847536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112135936"/>
+        <c:axId val="156730992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (100ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2003,7 +2052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111996016"/>
+        <c:crossAx val="182847536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2011,7 +2060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111996016"/>
+        <c:axId val="182847536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,6 +2080,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Angular</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Acceleration (dps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2062,7 +2171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112135936"/>
+        <c:crossAx val="156730992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2801,7 +2910,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C05-5E48-9E4E-F51109A03FDA}"/>
+              <c16:uniqueId val="{00000000-8C44-0341-843B-7FA24D1C2BAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3384,7 +3493,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5C05-5E48-9E4E-F51109A03FDA}"/>
+              <c16:uniqueId val="{00000001-8C44-0341-843B-7FA24D1C2BAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3967,7 +4076,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5C05-5E48-9E4E-F51109A03FDA}"/>
+              <c16:uniqueId val="{00000002-8C44-0341-843B-7FA24D1C2BAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3990,6 +4099,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (100ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4055,6 +4224,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Angular</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Acceleration (dps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5283,22 +5512,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>5670</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11652</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>168401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54561197-D9CC-C10A-894C-9A5B4B61980C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4C4979-9B65-52C1-B9A0-311919642C78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5318,23 +5547,61 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>707159</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>129886</xdr:rowOff>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>606136</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>503822</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>143887</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D490B46F-441D-9A40-8838-48BD4D8CCE27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>244300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>325120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3">
+        <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAB2BA8-B34A-D50F-9653-6579AF645EE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1C5382-B8C7-B049-9890-9880063774A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5342,8 +5609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5642841" y="533977"/>
-          <a:ext cx="2366818" cy="3968750"/>
+          <a:off x="17526460" y="711315"/>
+          <a:ext cx="2549700" cy="4206126"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5351,7 +5618,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -5384,16 +5651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>592281</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>119110</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>429721</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>491258</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>45796</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>328698</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5408,8 +5675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8059881" y="525510"/>
-          <a:ext cx="2388177" cy="3990686"/>
+          <a:off x="15243001" y="860790"/>
+          <a:ext cx="2367857" cy="3990686"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5453,23 +5720,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>477980</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30594</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>678294</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>483728</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>14431</xdr:rowOff>
+      <xdr:rowOff>42427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Oval 5">
+        <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1C5382-B8C7-B049-9890-9880063774A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAB2BA8-B34A-D50F-9653-6579AF645EE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5477,8 +5744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10349344" y="232639"/>
-          <a:ext cx="2668155" cy="4428837"/>
+          <a:off x="12978726" y="711332"/>
+          <a:ext cx="2377773" cy="3906155"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5486,7 +5753,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="00B0F0"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -5517,2070 +5784,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>821265</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4C4979-9B65-52C1-B9A0-311919642C78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="jolt"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="85">
-          <cell r="D85">
-            <v>-15.34</v>
-          </cell>
-          <cell r="E85">
-            <v>12.2</v>
-          </cell>
-          <cell r="F85">
-            <v>3.42</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86">
-            <v>-11.31</v>
-          </cell>
-          <cell r="E86">
-            <v>3.22</v>
-          </cell>
-          <cell r="F86">
-            <v>4.1100000000000003</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="D87">
-            <v>-10.49</v>
-          </cell>
-          <cell r="E87">
-            <v>10.43</v>
-          </cell>
-          <cell r="F87">
-            <v>-0.4486</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88">
-            <v>-6.75</v>
-          </cell>
-          <cell r="E88">
-            <v>-19.13</v>
-          </cell>
-          <cell r="F88">
-            <v>13.9786</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89">
-            <v>-7.02</v>
-          </cell>
-          <cell r="E89">
-            <v>8.09</v>
-          </cell>
-          <cell r="F89">
-            <v>15.337859999999999</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90">
-            <v>1.83</v>
-          </cell>
-          <cell r="E90">
-            <v>-3.24</v>
-          </cell>
-          <cell r="F90">
-            <v>5.33786</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91">
-            <v>-5.04</v>
-          </cell>
-          <cell r="E91">
-            <v>34.369999999999997</v>
-          </cell>
-          <cell r="F91">
-            <v>6.0278600000000004</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92">
-            <v>42.34</v>
-          </cell>
-          <cell r="E92">
-            <v>14.93</v>
-          </cell>
-          <cell r="F92">
-            <v>9.3178599999999996</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93">
-            <v>-44.55</v>
-          </cell>
-          <cell r="E93">
-            <v>-21.44</v>
-          </cell>
-          <cell r="F93">
-            <v>18.446000000000002</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94">
-            <v>3.48</v>
-          </cell>
-          <cell r="E94">
-            <v>-15.5</v>
-          </cell>
-          <cell r="F94">
-            <v>33.7346</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95">
-            <v>121.3</v>
-          </cell>
-          <cell r="E95">
-            <v>6.26</v>
-          </cell>
-          <cell r="F95">
-            <v>22.9846</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="D96">
-            <v>12.85</v>
-          </cell>
-          <cell r="E96">
-            <v>28.15</v>
-          </cell>
-          <cell r="F96">
-            <v>6.3545999999999996</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="D97">
-            <v>71.33</v>
-          </cell>
-          <cell r="E97">
-            <v>16.93</v>
-          </cell>
-          <cell r="F97">
-            <v>-4.3445999999999998</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="D98">
-            <v>68.05</v>
-          </cell>
-          <cell r="E98">
-            <v>22.05</v>
-          </cell>
-          <cell r="F98">
-            <v>4.5344600000000002</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="D99">
-            <v>62.84</v>
-          </cell>
-          <cell r="E99">
-            <v>13.5</v>
-          </cell>
-          <cell r="F99">
-            <v>6.3146000000000004</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="D100">
-            <v>65.44</v>
-          </cell>
-          <cell r="E100">
-            <v>-41.83</v>
-          </cell>
-          <cell r="F100">
-            <v>43.286000000000001</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="D101">
-            <v>14.4</v>
-          </cell>
-          <cell r="E101">
-            <v>-7.77</v>
-          </cell>
-          <cell r="F101">
-            <v>7.5086000000000004</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="D102">
-            <v>70.66</v>
-          </cell>
-          <cell r="E102">
-            <v>-32.14</v>
-          </cell>
-          <cell r="F102">
-            <v>20.206</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="D103">
-            <v>25.71</v>
-          </cell>
-          <cell r="E103">
-            <v>3.89</v>
-          </cell>
-          <cell r="F103">
-            <v>57.165999999999997</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="D104">
-            <v>114.7</v>
-          </cell>
-          <cell r="E104">
-            <v>49.66</v>
-          </cell>
-          <cell r="F104">
-            <v>-66.75</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="D105">
-            <v>26.85</v>
-          </cell>
-          <cell r="E105">
-            <v>3.97</v>
-          </cell>
-          <cell r="F105">
-            <v>4.2975000000000003</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="D106">
-            <v>-11.77</v>
-          </cell>
-          <cell r="E106">
-            <v>-42.05</v>
-          </cell>
-          <cell r="F106">
-            <v>-14.38</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="D107">
-            <v>66.47</v>
-          </cell>
-          <cell r="E107">
-            <v>23.53</v>
-          </cell>
-          <cell r="F107">
-            <v>6.8437999999999999</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="D108">
-            <v>40.44</v>
-          </cell>
-          <cell r="E108">
-            <v>-14.84</v>
-          </cell>
-          <cell r="F108">
-            <v>24.788</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="D109">
-            <v>13.22</v>
-          </cell>
-          <cell r="E109">
-            <v>-21.66</v>
-          </cell>
-          <cell r="F109">
-            <v>-6.968</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="D110">
-            <v>-23.01</v>
-          </cell>
-          <cell r="E110">
-            <v>24.76</v>
-          </cell>
-          <cell r="F110">
-            <v>5.6980000000000004</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="D111">
-            <v>-31.66</v>
-          </cell>
-          <cell r="E111">
-            <v>25.02</v>
-          </cell>
-          <cell r="F111">
-            <v>2.5680000000000001</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="D112">
-            <v>-45.34</v>
-          </cell>
-          <cell r="E112">
-            <v>27.88</v>
-          </cell>
-          <cell r="F112">
-            <v>4.5279999999999996</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="D113">
-            <v>-65.77</v>
-          </cell>
-          <cell r="E113">
-            <v>8.89</v>
-          </cell>
-          <cell r="F113">
-            <v>20.898</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="D114">
-            <v>-115.76</v>
-          </cell>
-          <cell r="E114">
-            <v>76.06</v>
-          </cell>
-          <cell r="F114">
-            <v>35.86</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="D115">
-            <v>-125.97</v>
-          </cell>
-          <cell r="E115">
-            <v>45.91</v>
-          </cell>
-          <cell r="F115">
-            <v>5.0259999999999998</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="D116">
-            <v>-148.85</v>
-          </cell>
-          <cell r="E116">
-            <v>37.1</v>
-          </cell>
-          <cell r="F116">
-            <v>-21.42</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="D117">
-            <v>-38.85</v>
-          </cell>
-          <cell r="E117">
-            <v>-29.74</v>
-          </cell>
-          <cell r="F117">
-            <v>-22.08</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="D118">
-            <v>-78.12</v>
-          </cell>
-          <cell r="E118">
-            <v>-21.07</v>
-          </cell>
-          <cell r="F118">
-            <v>-18.43</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="D119">
-            <v>-30.4</v>
-          </cell>
-          <cell r="E119">
-            <v>23.82</v>
-          </cell>
-          <cell r="F119">
-            <v>-19.25</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="D120">
-            <v>-31.85</v>
-          </cell>
-          <cell r="E120">
-            <v>18.63</v>
-          </cell>
-          <cell r="F120">
-            <v>9.0150000000000006</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="D121">
-            <v>-57.18</v>
-          </cell>
-          <cell r="E121">
-            <v>9.0500000000000007</v>
-          </cell>
-          <cell r="F121">
-            <v>-21.65</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="D122">
-            <v>-48.85</v>
-          </cell>
-          <cell r="E122">
-            <v>-17.57</v>
-          </cell>
-          <cell r="F122">
-            <v>-21.31</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="D123">
-            <v>-32.270000000000003</v>
-          </cell>
-          <cell r="E123">
-            <v>-0.9</v>
-          </cell>
-          <cell r="F123">
-            <v>2.2130999999999998</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="D124">
-            <v>-39.659999999999997</v>
-          </cell>
-          <cell r="E124">
-            <v>-6.87</v>
-          </cell>
-          <cell r="F124">
-            <v>-1.0109999999999999</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="D125">
-            <v>-19.329999999999998</v>
-          </cell>
-          <cell r="E125">
-            <v>-1.62</v>
-          </cell>
-          <cell r="F125">
-            <v>7.3710000000000004</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="D126">
-            <v>-35.39</v>
-          </cell>
-          <cell r="E126">
-            <v>5.07</v>
-          </cell>
-          <cell r="F126">
-            <v>9.1310000000000002</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="D127">
-            <v>-41.34</v>
-          </cell>
-          <cell r="E127">
-            <v>5.76</v>
-          </cell>
-          <cell r="F127">
-            <v>8.0609999999999999</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="D128">
-            <v>-43.98</v>
-          </cell>
-          <cell r="E128">
-            <v>69.42</v>
-          </cell>
-          <cell r="F128">
-            <v>30.440999999999999</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="D129">
-            <v>-70.900000000000006</v>
-          </cell>
-          <cell r="E129">
-            <v>-8.41</v>
-          </cell>
-          <cell r="F129">
-            <v>8.5510000000000002</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="D130">
-            <v>-162.37</v>
-          </cell>
-          <cell r="E130">
-            <v>-23.97</v>
-          </cell>
-          <cell r="F130">
-            <v>2.4</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="D131">
-            <v>-97.6</v>
-          </cell>
-          <cell r="E131">
-            <v>-12.92</v>
-          </cell>
-          <cell r="F131">
-            <v>21.21</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="D132">
-            <v>-135.30000000000001</v>
-          </cell>
-          <cell r="E132">
-            <v>-2.34</v>
-          </cell>
-          <cell r="F132">
-            <v>17.940000000000001</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="D133">
-            <v>-113.63</v>
-          </cell>
-          <cell r="E133">
-            <v>-33.18</v>
-          </cell>
-          <cell r="F133">
-            <v>49.45</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="D134">
-            <v>-43.56</v>
-          </cell>
-          <cell r="E134">
-            <v>1.37</v>
-          </cell>
-          <cell r="F134">
-            <v>9.24</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="D135">
-            <v>-26.53</v>
-          </cell>
-          <cell r="E135">
-            <v>6.61</v>
-          </cell>
-          <cell r="F135">
-            <v>8.11</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="D136">
-            <v>-2.23</v>
-          </cell>
-          <cell r="E136">
-            <v>3.79</v>
-          </cell>
-          <cell r="F136">
-            <v>20.67</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="D137">
-            <v>20.73</v>
-          </cell>
-          <cell r="E137">
-            <v>14.23</v>
-          </cell>
-          <cell r="F137">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="D138">
-            <v>112.6</v>
-          </cell>
-          <cell r="E138">
-            <v>5.13</v>
-          </cell>
-          <cell r="F138">
-            <v>-68.245000000000005</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="D139">
-            <v>135.62</v>
-          </cell>
-          <cell r="E139">
-            <v>43.92</v>
-          </cell>
-          <cell r="F139">
-            <v>-62.69</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="D140">
-            <v>123.56</v>
-          </cell>
-          <cell r="E140">
-            <v>70.47</v>
-          </cell>
-          <cell r="F140">
-            <v>-32.44</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="D141">
-            <v>100.02</v>
-          </cell>
-          <cell r="E141">
-            <v>24.15</v>
-          </cell>
-          <cell r="F141">
-            <v>15.34</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="D142">
-            <v>57.21</v>
-          </cell>
-          <cell r="E142">
-            <v>32.69</v>
-          </cell>
-          <cell r="F142">
-            <v>5.5339999999999998</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="D143">
-            <v>14.63</v>
-          </cell>
-          <cell r="E143">
-            <v>34.72</v>
-          </cell>
-          <cell r="F143">
-            <v>20.46</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="D144">
-            <v>-10.66</v>
-          </cell>
-          <cell r="E144">
-            <v>32.93</v>
-          </cell>
-          <cell r="F144">
-            <v>15.11</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="D145">
-            <v>-12.64</v>
-          </cell>
-          <cell r="E145">
-            <v>-0.28999999999999998</v>
-          </cell>
-          <cell r="F145">
-            <v>5.59</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="D146">
-            <v>0.47</v>
-          </cell>
-          <cell r="E146">
-            <v>-6.92</v>
-          </cell>
-          <cell r="F146">
-            <v>19.98</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="D147">
-            <v>-10.52</v>
-          </cell>
-          <cell r="E147">
-            <v>22.09</v>
-          </cell>
-          <cell r="F147">
-            <v>17.100000000000001</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="D148">
-            <v>-5.05</v>
-          </cell>
-          <cell r="E148">
-            <v>51.68</v>
-          </cell>
-          <cell r="F148">
-            <v>-6.43</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="D149">
-            <v>-88.61</v>
-          </cell>
-          <cell r="E149">
-            <v>42.99</v>
-          </cell>
-          <cell r="F149">
-            <v>-18.239999999999998</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="D150">
-            <v>-22.09</v>
-          </cell>
-          <cell r="E150">
-            <v>18.079999999999998</v>
-          </cell>
-          <cell r="F150">
-            <v>16.05</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="D151">
-            <v>8.75</v>
-          </cell>
-          <cell r="E151">
-            <v>58.34</v>
-          </cell>
-          <cell r="F151">
-            <v>-10.17</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="D152">
-            <v>22.64</v>
-          </cell>
-          <cell r="E152">
-            <v>59.25</v>
-          </cell>
-          <cell r="F152">
-            <v>1.51</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="D153">
-            <v>-0.63</v>
-          </cell>
-          <cell r="E153">
-            <v>67.3</v>
-          </cell>
-          <cell r="F153">
-            <v>-2.12</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="D154">
-            <v>-1.91</v>
-          </cell>
-          <cell r="E154">
-            <v>157.1</v>
-          </cell>
-          <cell r="F154">
-            <v>-15.76</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="D155">
-            <v>-9.8800000000000008</v>
-          </cell>
-          <cell r="E155">
-            <v>132.94999999999999</v>
-          </cell>
-          <cell r="F155">
-            <v>0.41599999999999998</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="D156">
-            <v>-52.82</v>
-          </cell>
-          <cell r="E156">
-            <v>49.76</v>
-          </cell>
-          <cell r="F156">
-            <v>1.196</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="D157">
-            <v>-4.0199999999999996</v>
-          </cell>
-          <cell r="E157">
-            <v>97.18</v>
-          </cell>
-          <cell r="F157">
-            <v>25.866</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="D158">
-            <v>-8.7899999999999991</v>
-          </cell>
-          <cell r="E158">
-            <v>53.59</v>
-          </cell>
-          <cell r="F158">
-            <v>19.545999999999999</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="D159">
-            <v>-1.1599999999999999</v>
-          </cell>
-          <cell r="E159">
-            <v>78.180000000000007</v>
-          </cell>
-          <cell r="F159">
-            <v>19.245999999999999</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="D160">
-            <v>8.2899999999999991</v>
-          </cell>
-          <cell r="E160">
-            <v>52.23</v>
-          </cell>
-          <cell r="F160">
-            <v>-0.436</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="D161">
-            <v>-6.82</v>
-          </cell>
-          <cell r="E161">
-            <v>74.430000000000007</v>
-          </cell>
-          <cell r="F161">
-            <v>17.856000000000002</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="D162">
-            <v>4.1500000000000004</v>
-          </cell>
-          <cell r="E162">
-            <v>27.65</v>
-          </cell>
-          <cell r="F162">
-            <v>-2.6459999999999999</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="D163">
-            <v>-11.01</v>
-          </cell>
-          <cell r="E163">
-            <v>-7.77</v>
-          </cell>
-          <cell r="F163">
-            <v>22.846</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="D164">
-            <v>-10.26</v>
-          </cell>
-          <cell r="E164">
-            <v>-18.27</v>
-          </cell>
-          <cell r="F164">
-            <v>10.69</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="D165">
-            <v>-37.950000000000003</v>
-          </cell>
-          <cell r="E165">
-            <v>-44.87</v>
-          </cell>
-          <cell r="F165">
-            <v>6.34</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="D166">
-            <v>-32.03</v>
-          </cell>
-          <cell r="E166">
-            <v>-111.31</v>
-          </cell>
-          <cell r="F166">
-            <v>7.95</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="D167">
-            <v>-30.5</v>
-          </cell>
-          <cell r="E167">
-            <v>-164.46</v>
-          </cell>
-          <cell r="F167">
-            <v>1.79</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="D168">
-            <v>-5.92</v>
-          </cell>
-          <cell r="E168">
-            <v>-33.31</v>
-          </cell>
-          <cell r="F168">
-            <v>-20.95</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="D169">
-            <v>16.98</v>
-          </cell>
-          <cell r="E169">
-            <v>-161.76</v>
-          </cell>
-          <cell r="F169">
-            <v>-5.4</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="D170">
-            <v>-31.16</v>
-          </cell>
-          <cell r="E170">
-            <v>-148.43</v>
-          </cell>
-          <cell r="F170">
-            <v>-9.8800000000000008</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="D171">
-            <v>-52.56</v>
-          </cell>
-          <cell r="E171">
-            <v>-183.66</v>
-          </cell>
-          <cell r="F171">
-            <v>-1.39</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="D172">
-            <v>14.37</v>
-          </cell>
-          <cell r="E172">
-            <v>20.93</v>
-          </cell>
-          <cell r="F172">
-            <v>-19.869</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="D173">
-            <v>-21.89</v>
-          </cell>
-          <cell r="E173">
-            <v>-67.63</v>
-          </cell>
-          <cell r="F173">
-            <v>8.4689999999999994</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="D174">
-            <v>-61.92</v>
-          </cell>
-          <cell r="E174">
-            <v>2.63</v>
-          </cell>
-          <cell r="F174">
-            <v>0.1769</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="D175">
-            <v>1.22</v>
-          </cell>
-          <cell r="E175">
-            <v>-13.01</v>
-          </cell>
-          <cell r="F175">
-            <v>6.1468999999999996</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="D176">
-            <v>-11.34</v>
-          </cell>
-          <cell r="E176">
-            <v>4.6100000000000003</v>
-          </cell>
-          <cell r="F176">
-            <v>-3.5489999999999999</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="D177">
-            <v>23.19</v>
-          </cell>
-          <cell r="E177">
-            <v>-45.66</v>
-          </cell>
-          <cell r="F177">
-            <v>5.5490000000000004</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="D178">
-            <v>-8.6300000000000008</v>
-          </cell>
-          <cell r="E178">
-            <v>-70.06</v>
-          </cell>
-          <cell r="F178">
-            <v>25.459</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="D179">
-            <v>19.88</v>
-          </cell>
-          <cell r="E179">
-            <v>-151.34</v>
-          </cell>
-          <cell r="F179">
-            <v>5.7389999999999999</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="D180">
-            <v>-6.32</v>
-          </cell>
-          <cell r="E180">
-            <v>-81.39</v>
-          </cell>
-          <cell r="F180">
-            <v>23.949000000000002</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="D181">
-            <v>2.09</v>
-          </cell>
-          <cell r="E181">
-            <v>-113.44</v>
-          </cell>
-          <cell r="F181">
-            <v>51.689</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="D182">
-            <v>-10.72</v>
-          </cell>
-          <cell r="E182">
-            <v>-45.48</v>
-          </cell>
-          <cell r="F182">
-            <v>48.75</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="D183">
-            <v>-1.98</v>
-          </cell>
-          <cell r="E183">
-            <v>-25.94</v>
-          </cell>
-          <cell r="F183">
-            <v>7.97</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="D184">
-            <v>-6.24</v>
-          </cell>
-          <cell r="E184">
-            <v>-73.569999999999993</v>
-          </cell>
-          <cell r="F184">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="D185">
-            <v>-4.6399999999999997</v>
-          </cell>
-          <cell r="E185">
-            <v>-53.71</v>
-          </cell>
-          <cell r="F185">
-            <v>31.66</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="D186">
-            <v>-1.79</v>
-          </cell>
-          <cell r="E186">
-            <v>-83.8</v>
-          </cell>
-          <cell r="F186">
-            <v>0.27</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="D187">
-            <v>5.86</v>
-          </cell>
-          <cell r="E187">
-            <v>-53.53</v>
-          </cell>
-          <cell r="F187">
-            <v>-6.6</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="D188">
-            <v>-3.24</v>
-          </cell>
-          <cell r="E188">
-            <v>-7.22</v>
-          </cell>
-          <cell r="F188">
-            <v>3.71</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="D189">
-            <v>-0.28999999999999998</v>
-          </cell>
-          <cell r="E189">
-            <v>-14.82</v>
-          </cell>
-          <cell r="F189">
-            <v>1.89</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="D190">
-            <v>-12.08</v>
-          </cell>
-          <cell r="E190">
-            <v>22.79</v>
-          </cell>
-          <cell r="F190">
-            <v>3.36</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="D191">
-            <v>-8.5</v>
-          </cell>
-          <cell r="E191">
-            <v>10.4</v>
-          </cell>
-          <cell r="F191">
-            <v>1.68</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="D192">
-            <v>12.7</v>
-          </cell>
-          <cell r="E192">
-            <v>142.91999999999999</v>
-          </cell>
-          <cell r="F192">
-            <v>-22.21</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="D193">
-            <v>-14.5</v>
-          </cell>
-          <cell r="E193">
-            <v>84.15</v>
-          </cell>
-          <cell r="F193">
-            <v>-22.78</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="D194">
-            <v>-6.35</v>
-          </cell>
-          <cell r="E194">
-            <v>64.03</v>
-          </cell>
-          <cell r="F194">
-            <v>-19.8</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="D195">
-            <v>-17.18</v>
-          </cell>
-          <cell r="E195">
-            <v>28.37</v>
-          </cell>
-          <cell r="F195">
-            <v>1.47</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="D196">
-            <v>-23.63</v>
-          </cell>
-          <cell r="E196">
-            <v>48.32</v>
-          </cell>
-          <cell r="F196">
-            <v>3.63</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="D197">
-            <v>-25.02</v>
-          </cell>
-          <cell r="E197">
-            <v>112.53</v>
-          </cell>
-          <cell r="F197">
-            <v>-24.11</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="D198">
-            <v>-48.15</v>
-          </cell>
-          <cell r="E198">
-            <v>174.81</v>
-          </cell>
-          <cell r="F198">
-            <v>-54.2</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="D199">
-            <v>-25.11</v>
-          </cell>
-          <cell r="E199">
-            <v>84.41</v>
-          </cell>
-          <cell r="F199">
-            <v>-15.37</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="D200">
-            <v>-60.46</v>
-          </cell>
-          <cell r="E200">
-            <v>156.41</v>
-          </cell>
-          <cell r="F200">
-            <v>-28.84</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="D201">
-            <v>-14.03</v>
-          </cell>
-          <cell r="E201">
-            <v>12.63</v>
-          </cell>
-          <cell r="F201">
-            <v>-12.27</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="D202">
-            <v>-2.1800000000000002</v>
-          </cell>
-          <cell r="E202">
-            <v>3.76</v>
-          </cell>
-          <cell r="F202">
-            <v>-43.396999999999998</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="D203">
-            <v>0.17</v>
-          </cell>
-          <cell r="E203">
-            <v>7.98</v>
-          </cell>
-          <cell r="F203">
-            <v>7.8839699999999997</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="D204">
-            <v>-1.63</v>
-          </cell>
-          <cell r="E204">
-            <v>-33.950000000000003</v>
-          </cell>
-          <cell r="F204">
-            <v>29.04</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="D205">
-            <v>-25.76</v>
-          </cell>
-          <cell r="E205">
-            <v>-19.010000000000002</v>
-          </cell>
-          <cell r="F205">
-            <v>85.07</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="D206">
-            <v>-10.34</v>
-          </cell>
-          <cell r="E206">
-            <v>24.85</v>
-          </cell>
-          <cell r="F206">
-            <v>112.69</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="D207">
-            <v>-20.440000000000001</v>
-          </cell>
-          <cell r="E207">
-            <v>3.59</v>
-          </cell>
-          <cell r="F207">
-            <v>94.269000000000005</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="D208">
-            <v>-24.79</v>
-          </cell>
-          <cell r="E208">
-            <v>-18.43</v>
-          </cell>
-          <cell r="F208">
-            <v>157.34</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="D209">
-            <v>-15.05</v>
-          </cell>
-          <cell r="E209">
-            <v>14.29</v>
-          </cell>
-          <cell r="F209">
-            <v>81.343999999999994</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="D210">
-            <v>-6.95</v>
-          </cell>
-          <cell r="E210">
-            <v>35.31</v>
-          </cell>
-          <cell r="F210">
-            <v>72.123999999999995</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="D211">
-            <v>-21.33</v>
-          </cell>
-          <cell r="E211">
-            <v>-4.5599999999999996</v>
-          </cell>
-          <cell r="F211">
-            <v>20.404</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="D212">
-            <v>1.66</v>
-          </cell>
-          <cell r="E212">
-            <v>19.79</v>
-          </cell>
-          <cell r="F212">
-            <v>46.120399999999997</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="D213">
-            <v>-7.31</v>
-          </cell>
-          <cell r="E213">
-            <v>-0.95</v>
-          </cell>
-          <cell r="F213">
-            <v>-1.6539999999999999</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="D214">
-            <v>-6.87</v>
-          </cell>
-          <cell r="E214">
-            <v>-1.91</v>
-          </cell>
-          <cell r="F214">
-            <v>-7.8639999999999999</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="D215">
-            <v>-6.11</v>
-          </cell>
-          <cell r="E215">
-            <v>3.01</v>
-          </cell>
-          <cell r="F215">
-            <v>-1.744</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="D216">
-            <v>-8.81</v>
-          </cell>
-          <cell r="E216">
-            <v>3.07</v>
-          </cell>
-          <cell r="F216">
-            <v>-18.603999999999999</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="D217">
-            <v>-5.6</v>
-          </cell>
-          <cell r="E217">
-            <v>6.61</v>
-          </cell>
-          <cell r="F217">
-            <v>8.8404000000000007</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="D218">
-            <v>-12.56</v>
-          </cell>
-          <cell r="E218">
-            <v>-12.34</v>
-          </cell>
-          <cell r="F218">
-            <v>67.180000000000007</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="D219">
-            <v>-26.76</v>
-          </cell>
-          <cell r="E219">
-            <v>2.11</v>
-          </cell>
-          <cell r="F219">
-            <v>64.528000000000006</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="D220">
-            <v>-14.87</v>
-          </cell>
-          <cell r="E220">
-            <v>1.82</v>
-          </cell>
-          <cell r="F220">
-            <v>11.608000000000001</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="D221">
-            <v>19.88</v>
-          </cell>
-          <cell r="E221">
-            <v>-7.79</v>
-          </cell>
-          <cell r="F221">
-            <v>28.437999999999999</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="D222">
-            <v>6.03</v>
-          </cell>
-          <cell r="E222">
-            <v>29.1</v>
-          </cell>
-          <cell r="F222">
-            <v>12.638</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="D223">
-            <v>-0.46</v>
-          </cell>
-          <cell r="E223">
-            <v>13.85</v>
-          </cell>
-          <cell r="F223">
-            <v>-12.21</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="D224">
-            <v>-7.68</v>
-          </cell>
-          <cell r="E224">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="F224">
-            <v>-49.89</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="D225">
-            <v>-5.91</v>
-          </cell>
-          <cell r="E225">
-            <v>-13.94</v>
-          </cell>
-          <cell r="F225">
-            <v>-74.2</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="D226">
-            <v>-1.28</v>
-          </cell>
-          <cell r="E226">
-            <v>-23.8</v>
-          </cell>
-          <cell r="F226">
-            <v>-59.74</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="D227">
-            <v>-0.26</v>
-          </cell>
-          <cell r="E227">
-            <v>-2.2400000000000002</v>
-          </cell>
-          <cell r="F227">
-            <v>-35.619999999999997</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="D228">
-            <v>0.47</v>
-          </cell>
-          <cell r="E228">
-            <v>0.08</v>
-          </cell>
-          <cell r="F228">
-            <v>-98.891999999999996</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="D229">
-            <v>-3.48</v>
-          </cell>
-          <cell r="E229">
-            <v>-3.63</v>
-          </cell>
-          <cell r="F229">
-            <v>-66.180000000000007</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="D230">
-            <v>17.07</v>
-          </cell>
-          <cell r="E230">
-            <v>-23.39</v>
-          </cell>
-          <cell r="F230">
-            <v>-93.16</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="D231">
-            <v>37.11</v>
-          </cell>
-          <cell r="E231">
-            <v>1.94</v>
-          </cell>
-          <cell r="F231">
-            <v>-39.776000000000003</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="D232">
-            <v>-11.21</v>
-          </cell>
-          <cell r="E232">
-            <v>-12.34</v>
-          </cell>
-          <cell r="F232">
-            <v>-62.58</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="D233">
-            <v>-24.6</v>
-          </cell>
-          <cell r="E233">
-            <v>-25.91</v>
-          </cell>
-          <cell r="F233">
-            <v>-103.68</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="D234">
-            <v>-25.33</v>
-          </cell>
-          <cell r="E234">
-            <v>-19.47</v>
-          </cell>
-          <cell r="F234">
-            <v>-95.13</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="D235">
-            <v>-17.510000000000002</v>
-          </cell>
-          <cell r="E235">
-            <v>-2.9</v>
-          </cell>
-          <cell r="F235">
-            <v>11.212999999999999</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="D236">
-            <v>-35.82</v>
-          </cell>
-          <cell r="E236">
-            <v>-5.45</v>
-          </cell>
-          <cell r="F236">
-            <v>-13.11</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="D237">
-            <v>-15.57</v>
-          </cell>
-          <cell r="E237">
-            <v>20.84</v>
-          </cell>
-          <cell r="F237">
-            <v>0.751</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="D238">
-            <v>0.24</v>
-          </cell>
-          <cell r="E238">
-            <v>-29.68</v>
-          </cell>
-          <cell r="F238">
-            <v>-17.829999999999998</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="D239">
-            <v>33.479999999999997</v>
-          </cell>
-          <cell r="E239">
-            <v>2.08</v>
-          </cell>
-          <cell r="F239">
-            <v>7.4583000000000004</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="D240">
-            <v>-10.37</v>
-          </cell>
-          <cell r="E240">
-            <v>-5.31</v>
-          </cell>
-          <cell r="F240">
-            <v>23.57</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="D241">
-            <v>17.62</v>
-          </cell>
-          <cell r="E241">
-            <v>1.97</v>
-          </cell>
-          <cell r="F241">
-            <v>-36.700000000000003</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="D242">
-            <v>-33.18</v>
-          </cell>
-          <cell r="E242">
-            <v>-0.46</v>
-          </cell>
-          <cell r="F242">
-            <v>-50.21</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="D243">
-            <v>-1.69</v>
-          </cell>
-          <cell r="E243">
-            <v>13.56</v>
-          </cell>
-          <cell r="F243">
-            <v>-46.85</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="D244">
-            <v>-3.83</v>
-          </cell>
-          <cell r="E244">
-            <v>6.78</v>
-          </cell>
-          <cell r="F244">
-            <v>-38.43</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="D245">
-            <v>-18.149999999999999</v>
-          </cell>
-          <cell r="E245">
-            <v>-25.97</v>
-          </cell>
-          <cell r="F245">
-            <v>-67.31</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="D246">
-            <v>-23.44</v>
-          </cell>
-          <cell r="E246">
-            <v>-5.98</v>
-          </cell>
-          <cell r="F246">
-            <v>-41.4</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="D247">
-            <v>-24.46</v>
-          </cell>
-          <cell r="E247">
-            <v>-1.82</v>
-          </cell>
-          <cell r="F247">
-            <v>-58.44</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="D248">
-            <v>-24.37</v>
-          </cell>
-          <cell r="E248">
-            <v>-16.41</v>
-          </cell>
-          <cell r="F248">
-            <v>-63.15</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="D249">
-            <v>-14.96</v>
-          </cell>
-          <cell r="E249">
-            <v>3.69</v>
-          </cell>
-          <cell r="F249">
-            <v>-41.185000000000002</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="D250">
-            <v>-13.63</v>
-          </cell>
-          <cell r="E250">
-            <v>-13.21</v>
-          </cell>
-          <cell r="F250">
-            <v>-40.11</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="D251">
-            <v>-28.37</v>
-          </cell>
-          <cell r="E251">
-            <v>-10.199999999999999</v>
-          </cell>
-          <cell r="F251">
-            <v>-52.96</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="D252">
-            <v>-18.11</v>
-          </cell>
-          <cell r="E252">
-            <v>1.21</v>
-          </cell>
-          <cell r="F252">
-            <v>-52.706000000000003</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="D253">
-            <v>-4.78</v>
-          </cell>
-          <cell r="E253">
-            <v>4.78</v>
-          </cell>
-          <cell r="F253">
-            <v>2.63706</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="D254">
-            <v>-12.47</v>
-          </cell>
-          <cell r="E254">
-            <v>5.86</v>
-          </cell>
-          <cell r="F254">
-            <v>4.3806000000000003</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="D255">
-            <v>-5.92</v>
-          </cell>
-          <cell r="E255">
-            <v>6.26</v>
-          </cell>
-          <cell r="F255">
-            <v>7.3906000000000001</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="D256">
-            <v>-16.399999999999999</v>
-          </cell>
-          <cell r="E256">
-            <v>7.19</v>
-          </cell>
-          <cell r="F256">
-            <v>9.7606000000000002</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="D257">
-            <v>-0.66</v>
-          </cell>
-          <cell r="E257">
-            <v>7.5</v>
-          </cell>
-          <cell r="F257">
-            <v>0.41060000000000002</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="D258">
-            <v>-4.9000000000000004</v>
-          </cell>
-          <cell r="E258">
-            <v>44.53</v>
-          </cell>
-          <cell r="F258">
-            <v>51.405999999999999</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="D259">
-            <v>-13.77</v>
-          </cell>
-          <cell r="E259">
-            <v>39.89</v>
-          </cell>
-          <cell r="F259">
-            <v>93.575999999999993</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="D260">
-            <v>16.21</v>
-          </cell>
-          <cell r="E260">
-            <v>15.18</v>
-          </cell>
-          <cell r="F260">
-            <v>137.40600000000001</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="D261">
-            <v>-2.98</v>
-          </cell>
-          <cell r="E261">
-            <v>0.47</v>
-          </cell>
-          <cell r="F261">
-            <v>96.290599999999998</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="D262">
-            <v>-28.75</v>
-          </cell>
-          <cell r="E262">
-            <v>23.44</v>
-          </cell>
-          <cell r="F262">
-            <v>116.23</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="D263">
-            <v>3.85</v>
-          </cell>
-          <cell r="E263">
-            <v>18.38</v>
-          </cell>
-          <cell r="F263">
-            <v>40.3523</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="D264">
-            <v>-9.51</v>
-          </cell>
-          <cell r="E264">
-            <v>-2.9</v>
-          </cell>
-          <cell r="F264">
-            <v>11.712999999999999</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="D265">
-            <v>2.44</v>
-          </cell>
-          <cell r="E265">
-            <v>-12.61</v>
-          </cell>
-          <cell r="F265">
-            <v>45.162999999999997</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="D266">
-            <v>-4.5999999999999996</v>
-          </cell>
-          <cell r="E266">
-            <v>12.32</v>
-          </cell>
-          <cell r="F266">
-            <v>9.0429999999999993</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="D267">
-            <v>-6.93</v>
-          </cell>
-          <cell r="E267">
-            <v>16.09</v>
-          </cell>
-          <cell r="F267">
-            <v>0.29299999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7882,8 +6086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00509EBA-5220-1848-A1F1-66BE21F9128D}">
   <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="135" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Testing/IMU data/rollGyro.xlsx
+++ b/Testing/IMU data/rollGyro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tris/Documents/2022UCT/2nd sem/3097/SHARC_buoy_data_transmission/Testing/IMU data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF615041-2F7A-AE46-905C-F300568FE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA37837-1153-1F46-B2B8-3294E8E31138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C21F12DE-DC27-A74D-B391-2DE787A87BC9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C21F12DE-DC27-A74D-B391-2DE787A87BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Gyrometer</a:t>
+              <a:t>Gyroscope</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -2286,7 +2286,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Gyrometer</a:t>
+              <a:t>Gyroscope</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -6086,8 +6086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00509EBA-5220-1848-A1F1-66BE21F9128D}">
   <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="F31" zoomScale="150" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
